--- a/Softphones.xlsx
+++ b/Softphones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.fricke\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A45C684F-735E-4FC5-A2A2-65292CFF13B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28C3A6B-A2FA-4C07-BDE4-C3D3AF998CE1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9435" xr2:uid="{F998D523-BAA6-4F73-956B-787129353C1C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Produkt</t>
   </si>
@@ -57,9 +57,6 @@
     <t>PhonerLite</t>
   </si>
   <si>
-    <t>Windows, Linux??</t>
-  </si>
-  <si>
     <t>Freeware</t>
   </si>
   <si>
@@ -70,6 +67,24 @@
   </si>
   <si>
     <t>Android</t>
+  </si>
+  <si>
+    <t>Ergänzungen</t>
+  </si>
+  <si>
+    <t>Preis bei 80 Desktops</t>
+  </si>
+  <si>
+    <t>Preis bei 32 Simultanverbindungen</t>
+  </si>
+  <si>
+    <t>SessionTalk</t>
+  </si>
+  <si>
+    <t>iOS, Android</t>
+  </si>
+  <si>
+    <t>Windows</t>
   </si>
 </sst>
 </file>
@@ -425,19 +440,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CE0BEE-F350-4C7B-8FCD-DFD4C40D7C2A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +466,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -464,11 +483,14 @@
       <c r="D2" s="1">
         <v>3196</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -481,33 +503,50 @@
       <c r="D4" s="1">
         <v>1195</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Softphones.xlsx
+++ b/Softphones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.fricke\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28C3A6B-A2FA-4C07-BDE4-C3D3AF998CE1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF2564F-7A86-456C-99EF-E8A6600F8698}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9435" xr2:uid="{F998D523-BAA6-4F73-956B-787129353C1C}"/>
   </bookViews>

--- a/Softphones.xlsx
+++ b/Softphones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.fricke\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdickgre\Documents\GitHub\OSP_VOIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5AD9EF-9AEB-419A-BAC6-283FAD0EF142}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9435" xr2:uid="{F998D523-BAA6-4F73-956B-787129353C1C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -139,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
@@ -508,23 +507,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CE0BEE-F350-4C7B-8FCD-DFD4C40D7C2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView zoomScale="84" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -558,10 +557,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -578,7 +577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -592,7 +591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -606,7 +605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -627,22 +626,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2417C63-0C9E-46DC-A84F-02FD98DCAE8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -656,7 +655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -673,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -690,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -707,11 +706,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -728,12 +727,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -747,7 +746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -764,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -781,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -798,12 +797,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
